--- a/main_streamlit_v3_temp.xlsx
+++ b/main_streamlit_v3_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28894.69663688177</v>
+        <v>24911.38716443818</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28925.68194575899</v>
+        <v>24916.38918285585</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28754.09452468065</v>
+        <v>24957.02993354654</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28681.77642241603</v>
+        <v>24967.75907746159</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28553.20207656737</v>
+        <v>24850.5955632499</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28481.06452540715</v>
+        <v>24815.2672490913</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28111.78648900596</v>
+        <v>24778.60852788819</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28163.9905090086</v>
+        <v>24817.06543845145</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28183.84694291523</v>
+        <v>24745.93138378337</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28030.5008129784</v>
+        <v>24742.51149156061</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27722.48994406096</v>
+        <v>24805.58210148418</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27723.05505143396</v>
+        <v>24711.57627630409</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27650.02676395683</v>
+        <v>24699.47724563493</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27669.01716907707</v>
+        <v>24574.35776793962</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27671.94428271967</v>
+        <v>24482.08963388008</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27360.18217223114</v>
+        <v>24612.07879655421</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27557.50623661805</v>
+        <v>24627.51100803755</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27573.58217676486</v>
+        <v>24549.50137970133</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27596.74163958147</v>
+        <v>24544.65780694822</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27330.9604698124</v>
+        <v>24683.57769455363</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27466.65895670457</v>
+        <v>24746.98308771505</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27438.3599159994</v>
+        <v>24445.19127504482</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27593.60777338712</v>
+        <v>24545.07737198272</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27002.72055462477</v>
+        <v>24794.96706470142</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27306.83637860995</v>
+        <v>24894.56056473822</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27340.71463950679</v>
+        <v>24975.28630722361</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27411.41671681446</v>
+        <v>24834.79588567106</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27427.13806702626</v>
+        <v>24914.85537121049</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25752.3382110772</v>
+        <v>25900.73733950641</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26347.90706538979</v>
+        <v>26000.0190423068</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26263.29112645339</v>
+        <v>25789.94352708381</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26311.69274528135</v>
+        <v>25882.57406704774</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25698.45462311411</v>
+        <v>26193.69053617713</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26181.96986139276</v>
+        <v>26305.31993576441</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26153.93555002671</v>
+        <v>26003.36319547324</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26453.6763472987</v>
+        <v>26292.5338995457</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>26174.0978470966</v>
+        <v>26509.49133170148</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26383.76062603493</v>
+        <v>26599.97038772617</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26237.9429085429</v>
+        <v>26528.84974991193</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26227.13147720791</v>
+        <v>26495.94823129612</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26205.11871869885</v>
+        <v>26486.3574663187</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26103.27975445373</v>
+        <v>26488.47044933233</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26094.57663251824</v>
+        <v>26313.7241973816</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26056.89115046696</v>
+        <v>26088.72996815263</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26013.6463826251</v>
+        <v>26024.0338443504</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25881.39981385846</v>
+        <v>26076.28747078588</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25956.63210904143</v>
+        <v>26069.81286147024</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26029.64043822181</v>
+        <v>25999.77963007609</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25950.45897666376</v>
+        <v>25920.61812668136</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26023.49592833241</v>
+        <v>25931.83260389495</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25175.10287527552</v>
+        <v>25878.94678410252</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25248.78919051564</v>
+        <v>25867.67430275025</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25260.49334732262</v>
+        <v>25786.55596192374</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25327.332296459</v>
+        <v>25782.26091495784</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25010.17544262734</v>
+        <v>25844.7930821507</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25080.46463111705</v>
+        <v>25829.12305065608</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25144.31003099944</v>
+        <v>25199.23483041306</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25229.81200475384</v>
+        <v>25151.68330055916</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24754.72044064241</v>
+        <v>25307.39974313112</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24832.02981979974</v>
+        <v>25361.36896158439</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>24914.48574959809</v>
+        <v>25286.98618772415</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>24964.71275623342</v>
+        <v>25051.33466840217</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24309.45688006595</v>
+        <v>25090.72215673769</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>24395.85742524893</v>
+        <v>25455.49574122819</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>24462.71648748237</v>
+        <v>25446.89516333725</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>24545.37658554996</v>
+        <v>25426.53086407375</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>24616.60337975856</v>
+        <v>25388.14504389311</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24067.94790489411</v>
+        <v>25503.21672385436</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>24150.06741739735</v>
+        <v>25533.84306331068</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24218.73990972744</v>
+        <v>25489.12282892979</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>24285.91076260272</v>
+        <v>25638.12554238868</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23562.3218805341</v>
+        <v>26023.08615346546</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23641.75614895683</v>
+        <v>25998.47958380932</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23689.50185780554</v>
+        <v>25126.69258747351</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23773.72046633693</v>
+        <v>24551.05630408872</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22759.76233492895</v>
+        <v>24788.87188969746</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22846.16288011192</v>
+        <v>25143.15156786221</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22873.67894103773</v>
+        <v>25138.87321360436</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22957.67767075623</v>
+        <v>25096.1250931443</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23032.94821593921</v>
+        <v>25058.17233654423</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22209.74277746438</v>
+        <v>25539.29378659874</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22274.86973733437</v>
+        <v>25620.43229214183</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22286.88871137301</v>
+        <v>25317.38575023311</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22371.7532699631</v>
+        <v>25407.23871876936</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21642.49360688011</v>
+        <v>25976.86779389525</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21728.36415206308</v>
+        <v>26071.92269602533</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21741.76438820186</v>
+        <v>26074.8484576302</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21825.62473223098</v>
+        <v>26169.96900336956</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21413.34970500944</v>
+        <v>26444.1756813443</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21209.7343329001</v>
+        <v>26602.15837191994</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21279.62334442546</v>
+        <v>26614.48181848673</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21364.85744314273</v>
+        <v>26214.38591111057</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21444.5858927843</v>
+        <v>26269.60876806683</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21503.38074128457</v>
+        <v>26286.12418486382</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21590.31128646755</v>
+        <v>26278.21614263165</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21614.08251807043</v>
+        <v>26257.47301833408</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21701.0130632534</v>
+        <v>26237.74885966097</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21539.02839109689</v>
+        <v>26233.14115386693</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21624.36893627986</v>
+        <v>26286.32903403039</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21701.18322505257</v>
+        <v>26369.45698821967</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21788.11377023554</v>
+        <v>26312.76178787277</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21873.88088272621</v>
+        <v>26202.297919453</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21761.07934412447</v>
+        <v>26166.68033398418</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21848.00988930744</v>
+        <v>26138.95197763541</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>21927.96105004297</v>
+        <v>26057.24710270243</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>22014.89159522595</v>
+        <v>26038.92753740469</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21673.69549885191</v>
+        <v>26074.95718775578</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21760.62604403488</v>
+        <v>26073.04509022318</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>21847.55658921785</v>
+        <v>25809.99690453603</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21934.48713440082</v>
+        <v>25892.69792522977</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21655.38155912317</v>
+        <v>25905.18224498169</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21720.94559133293</v>
+        <v>25918.28261594951</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21800.12592292366</v>
+        <v>25887.54793009295</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21812.85646810664</v>
+        <v>25567.08214104987</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21898.83058610514</v>
+        <v>25607.99922921007</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21717.14939478222</v>
+        <v>25814.78938125995</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21800.73599092061</v>
+        <v>25784.78221433734</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21887.66653610358</v>
+        <v>25763.4743052278</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21974.59708128655</v>
+        <v>25733.56511771262</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21771.29060433031</v>
+        <v>26024.51292702071</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21856.72660978726</v>
+        <v>26037.98062529745</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>21938.7627374945</v>
+        <v>25953.362728573</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>22024.10328267747</v>
+        <v>25698.52250243915</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>21576.69215841238</v>
+        <v>25936.13783895862</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>21622.47587799305</v>
+        <v>26041.34398301161</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21708.4445202634</v>
+        <v>26107.44422232181</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>21795.37506544637</v>
+        <v>25870.79531464154</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>21860.49217473191</v>
+        <v>25932.20556084145</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20756.88630856379</v>
+        <v>26129.11382785059</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20843.81685374676</v>
+        <v>25970.09325981549</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20918.63707727368</v>
+        <v>26254.90896597013</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21005.56762245665</v>
+        <v>26264.59467803209</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19708.73873053224</v>
+        <v>26487.38566013753</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19791.4292757152</v>
+        <v>26695.82871599712</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>19856.09944760965</v>
+        <v>26853.4920116778</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19937.48701778038</v>
+        <v>26727.45721114149</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>19439.50609643283</v>
+        <v>26667.66181901021</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19525.3766416158</v>
+        <v>27014.00994368425</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19563.11347419501</v>
+        <v>27149.87327565584</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19607.25808376023</v>
+        <v>27389.22322779134</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19668.68195490474</v>
+        <v>27542.82961423727</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19573.46947485775</v>
+        <v>27587.56148908571</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>19658.81002004072</v>
+        <v>27571.59691575262</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19739.37120216637</v>
+        <v>27558.78220398969</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>19826.30174734934</v>
+        <v>27548.68683582354</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>19892.93672132019</v>
+        <v>27715.02510485208</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>19979.86726650316</v>
+        <v>27692.93628056389</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>19979.86726650316</v>
+        <v>27739.15246846267</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>19892.93672132019</v>
+        <v>27737.70942266815</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>19232.93234692402</v>
+        <v>27701.94814158956</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>19146.00180174105</v>
+        <v>27712.31390293497</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>19059.07125655808</v>
+        <v>27704.62108918925</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>18972.1407113751</v>
+        <v>27561.02677992066</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,1223 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>18885.21016619213</v>
+        <v>27542.40275537457</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27648.17090068717</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27522.88965001276</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27367.45983199542</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27353.34407672042</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27370.76052134134</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27334.05064030305</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>26907.95092942555</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>26824.14224099081</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26837.41482951641</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>26846.58921711137</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>26762.30256115634</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>26529.75828356867</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>26336.20821212662</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>26296.69438938687</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26150.1253404232</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>26002.24137721102</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>25974.83455273655</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>26071.20383686454</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>26125.66262791841</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>26032.27915548531</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>25884.90336625798</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>25881.10298255331</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>25913.83242313339</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>25959.28092406244</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>25849.75482455907</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>25661.40245736668</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>25934.68290714044</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>25895.52287041745</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>24429.62656201259</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>24504.81816388933</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>24820.01371687847</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>24822.67050117893</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>24875.49528460529</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>24593.25774805441</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>24570.02255204599</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>24788.94874601797</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>25066.12776374435</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>25098.3938870087</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>24988.00695264447</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>24706.5992656612</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>24690.87259748624</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>24651.73040450875</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>24570.52043120197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>24555.31734553333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>24504.46442200971</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>24470.40933677522</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>24336.58480243949</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>24362.74945450603</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>24464.64518785123</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>24537.59508507158</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>24340.18409874952</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>23841.59076584918</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>23932.44232690768</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>23985.83010555391</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>24035.75293661255</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>23981.74490397967</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>23907.14487327465</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>23989.26875754304</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>24047.50752727935</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>23952.86301075776</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>23698.94721802124</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>23783.5010451109</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>23841.85960051332</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>23564.17079765363</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>23252.49064924262</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>23287.89949695677</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>23366.88862991663</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>23144.14532825743</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>22992.94576393901</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>23079.51906827244</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>23181.15812409917</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>23288.07823101928</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>22990.6967813805</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>22675.84157648961</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>22759.34892640915</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>22855.80170328169</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>22303.82033547915</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>22011.49411093082</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>22108.36296238796</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>22141.51251596939</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>21836.85981685734</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>21506.85355944673</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>21582.77091455525</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>21607.19871645128</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>21711.55962249279</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>21445.22844603083</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>21137.01070893437</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>21233.25469696941</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>21302.43355019073</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>21144.57599738409</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>20928.06888847368</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>21032.58899539379</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>21137.71589142955</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>21239.69313941665</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>21330.97342633001</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>21427.68351134841</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>21534.60361826852</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>21624.53751845786</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>21584.67213098779</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>21577.12985052804</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>21684.04995744815</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>21780.87611859755</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>21709.97985295126</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>21732.38556163532</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>21839.30566855543</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>21941.98965897068</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>21741.59641108309</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>21811.27849741246</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>21832.94772878822</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>21939.86783570833</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>22046.78794262843</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>21977.85180953759</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>21881.88699223926</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>21981.05688556713</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>22087.02056530277</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>22038.93818571284</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>22039.77589323857</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>22143.30890338449</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>22250.2290103046</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>22219.92834131216</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>22132.15055117699</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>22235.138143534</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>22341.09634754148</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>22448.01645446159</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>22318.36768335838</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>22242.39054435239</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>22348.35799742635</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>22455.27810434646</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>21960.78821895928</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>21792.60783248089</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>21899.527939401</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>21998.64415599853</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>22105.56426291863</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>21880.82233861571</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>21486.02768774571</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>21576.48313664989</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>21669.97384538647</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>21427.23134542894</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>21303.05142886428</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>21351.79412933277</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>21437.87234480093</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>21467.28468499464</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>21472.44030573323</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>21575.12964342257</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>21675.59820195558</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>21782.51830887569</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>21880.49151194965</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>21977.5235098954</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>22084.4436168155</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>22191.36372373561</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>22207.93166248968</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>22005.47414359096</v>
       </c>
     </row>
   </sheetData>

--- a/main_streamlit_v3_temp.xlsx
+++ b/main_streamlit_v3_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24911.38716443818</v>
+        <v>27649.01199640813</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24916.38918285585</v>
+        <v>27591.56196396416</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24957.02993354654</v>
+        <v>27598.21337134232</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24967.75907746159</v>
+        <v>27552.4825359806</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24850.5955632499</v>
+        <v>27326.54405022385</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24815.2672490913</v>
+        <v>27188.47081041756</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24778.60852788819</v>
+        <v>27228.52246345006</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24817.06543845145</v>
+        <v>27156.36447272383</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24745.93138378337</v>
+        <v>26920.00153141296</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24742.51149156061</v>
+        <v>26648.19094548264</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24805.58210148418</v>
+        <v>26635.00548232959</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24711.57627630409</v>
+        <v>26571.88239966574</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24699.47724563493</v>
+        <v>26567.43502221554</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24574.35776793962</v>
+        <v>26446.24345114523</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24482.08963388008</v>
+        <v>26416.95017989769</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24612.07879655421</v>
+        <v>26496.35854683741</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24627.51100803755</v>
+        <v>26557.76707275658</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>24549.50137970133</v>
+        <v>26442.16395369552</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24544.65780694822</v>
+        <v>26390.97054566144</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24683.57769455363</v>
+        <v>26382.11649165639</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>24746.98308771505</v>
+        <v>26485.74877230015</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>24445.19127504482</v>
+        <v>26245.85342107174</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24545.07737198272</v>
+        <v>26156.97194754233</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24794.96706470142</v>
+        <v>26312.97315263611</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24894.56056473822</v>
+        <v>26373.95718135078</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24975.28630722361</v>
+        <v>26431.61189169398</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24834.79588567106</v>
+        <v>24845.62800239064</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24914.85537121049</v>
+        <v>25184.59186760036</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25900.73733950641</v>
+        <v>25273.52942622871</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26000.0190423068</v>
+        <v>25298.34313171618</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25789.94352708381</v>
+        <v>24968.42197352531</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25882.57406704774</v>
+        <v>25018.7136858973</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26193.69053617713</v>
+        <v>25240.32281807103</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26305.31993576441</v>
+        <v>25351.42638894358</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26003.36319547324</v>
+        <v>25461.2925506583</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26292.5338995457</v>
+        <v>25299.9496686512</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>26509.49133170148</v>
+        <v>25420.24883459154</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26599.97038772617</v>
+        <v>25347.27045834897</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26528.84974991193</v>
+        <v>25337.97408014385</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26495.94823129612</v>
+        <v>25262.59733606876</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26486.3574663187</v>
+        <v>25225.96110482714</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26488.47044933233</v>
+        <v>25221.60265321424</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26313.7241973816</v>
+        <v>25184.27270108755</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26088.72996815263</v>
+        <v>25094.94760842112</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26024.0338443504</v>
+        <v>25060.36470911132</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26076.28747078588</v>
+        <v>25139.09390830671</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26069.81286147024</v>
+        <v>25196.20968674471</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25999.77963007609</v>
+        <v>25274.71682589643</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25920.61812668136</v>
+        <v>25077.50273788197</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25931.83260389495</v>
+        <v>24827.75328016165</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25878.94678410252</v>
+        <v>24847.5214210534</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25867.67430275025</v>
+        <v>24915.73852903776</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25786.55596192374</v>
+        <v>24822.84057273527</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25782.26091495784</v>
+        <v>24754.58267454771</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25844.7930821507</v>
+        <v>24843.42799663148</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25829.12305065608</v>
+        <v>24897.02377163016</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25199.23483041306</v>
+        <v>24807.33709513296</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25151.68330055916</v>
+        <v>24636.63357344828</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25307.39974313112</v>
+        <v>24735.57498373486</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25361.36896158439</v>
+        <v>24795.29296393336</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25286.98618772415</v>
+        <v>24507.92341780627</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25051.33466840217</v>
+        <v>24349.75063226256</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25090.72215673769</v>
+        <v>24358.41208200272</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25455.49574122819</v>
+        <v>24442.34586228227</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25446.89516333725</v>
+        <v>24507.60735481749</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25426.53086407375</v>
+        <v>24302.09385494001</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25388.14504389311</v>
+        <v>24088.4798991197</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25503.21672385436</v>
+        <v>24182.82792054662</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25533.84306331068</v>
+        <v>24272.01234365947</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25489.12282892979</v>
+        <v>23991.14941598253</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25638.12554238868</v>
+        <v>23748.8030986486</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26023.08615346546</v>
+        <v>23843.48860406886</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25998.47958380932</v>
+        <v>23924.74257992917</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25126.69258747351</v>
+        <v>23595.09154543357</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>24551.05630408872</v>
+        <v>23045.85126373372</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>24788.87188969746</v>
+        <v>23138.81034607705</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25143.15156786221</v>
+        <v>23200.74322781706</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25138.87321360436</v>
+        <v>23300.120443863</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25096.1250931443</v>
+        <v>23059.84607477418</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25058.17233654423</v>
+        <v>22767.48724562187</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25539.29378659874</v>
+        <v>22857.52404838926</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25620.43229214183</v>
+        <v>22888.50125294043</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25317.38575023311</v>
+        <v>22543.16354117204</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25407.23871876936</v>
+        <v>22318.58815038253</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25976.86779389525</v>
+        <v>22386.36518452074</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26071.92269602533</v>
+        <v>22472.71559883981</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26074.8484576302</v>
+        <v>22342.50545278259</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26169.96900336956</v>
+        <v>21909.86237036463</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26444.1756813443</v>
+        <v>21847.06788668753</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26602.15837191994</v>
+        <v>21946.61440718055</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26614.48181848673</v>
+        <v>22044.16641321325</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26214.38591111057</v>
+        <v>22134.86290234716</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26269.60876806683</v>
+        <v>22229.2959824975</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26286.12418486382</v>
+        <v>22270.05697722229</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26278.21614263165</v>
+        <v>22371.15107879639</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26257.47301833408</v>
+        <v>22373.75933342256</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26237.74885966097</v>
+        <v>22336.70755705333</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26233.14115386693</v>
+        <v>22428.16540221718</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26286.32903403039</v>
+        <v>22529.73950379128</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26369.45698821967</v>
+        <v>22631.31360536538</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26312.76178787277</v>
+        <v>22500.34274881906</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26202.297919453</v>
+        <v>22564.31607101472</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26166.68033398418</v>
+        <v>22664.0002617608</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26138.95197763541</v>
+        <v>22761.57824683004</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26057.24710270243</v>
+        <v>22822.2175230319</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26038.92753740469</v>
+        <v>22528.02574130449</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26074.95718775578</v>
+        <v>22629.59984287859</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26073.04509022318</v>
+        <v>22731.17394445269</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>25809.99690453603</v>
+        <v>22719.0526776707</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25892.69792522977</v>
+        <v>22558.48209105836</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25905.18224498169</v>
+        <v>22647.98597904023</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25918.28261594951</v>
+        <v>22609.70800309495</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>25887.54793009295</v>
+        <v>22710.32567748458</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>25567.08214104987</v>
+        <v>22663.35017431837</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25607.99922921007</v>
+        <v>22686.32421194767</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>25814.78938125995</v>
+        <v>22787.17831352177</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25784.78221433734</v>
+        <v>22888.75241509587</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25763.4743052278</v>
+        <v>22792.56468066854</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25733.56511771262</v>
+        <v>22790.01299738864</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26024.51292702071</v>
+        <v>22891.58709896273</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26037.98062529745</v>
+        <v>22988.26678306111</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>25953.362728573</v>
+        <v>22965.93472553141</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>25698.52250243915</v>
+        <v>22789.87309895988</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25936.13783895862</v>
+        <v>22876.89306461165</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26041.34398301161</v>
+        <v>22978.46716618575</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26107.44422232181</v>
+        <v>23058.22783186241</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25870.79531464154</v>
+        <v>22964.7602795875</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25932.20556084145</v>
+        <v>21670.55950102089</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>26129.11382785059</v>
+        <v>21765.85078093893</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25970.09325981549</v>
+        <v>21861.59738251303</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26254.90896597013</v>
+        <v>21395.05343949273</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26264.59467803209</v>
+        <v>21292.26666968969</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>26487.38566013753</v>
+        <v>21379.18186333466</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>26695.82871599712</v>
+        <v>21472.64288798569</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>26853.4920116778</v>
+        <v>21296.60373104748</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>26727.45721114149</v>
+        <v>21140.94165566679</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>26667.66181901021</v>
+        <v>21238.22221877934</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27014.00994368425</v>
+        <v>21324.67260365878</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27149.87327565584</v>
+        <v>21366.06704397614</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27389.22322779134</v>
+        <v>21354.7106147787</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>27542.82961423727</v>
+        <v>21392.30733295987</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>27587.56148908571</v>
+        <v>21487.51207147665</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>27571.59691575262</v>
+        <v>21589.08617305075</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>27558.78220398969</v>
+        <v>21685.1667233428</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>27548.68683582354</v>
+        <v>21776.85271594254</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>27715.02510485208</v>
+        <v>21878.42681751664</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>27692.93628056389</v>
+        <v>21980.00091909074</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>27739.15246846267</v>
+        <v>21908.30827504191</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>27737.70942266815</v>
+        <v>21625.39713416782</v>
       </c>
     </row>
     <row r="151">
@@ -1642,1255 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>27701.94814158956</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27712.31390293497</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27704.62108918925</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27561.02677992066</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27542.40275537457</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27648.17090068717</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>27522.88965001276</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27367.45983199542</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27353.34407672042</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27370.76052134134</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27334.05064030305</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>26907.95092942555</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>26824.14224099081</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>26837.41482951641</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>26846.58921711137</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>26762.30256115634</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>26529.75828356867</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>26336.20821212662</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>26296.69438938687</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>26150.1253404232</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>26002.24137721102</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>25974.83455273655</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>26071.20383686454</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>26125.66262791841</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>26032.27915548531</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>25884.90336625798</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>25881.10298255331</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>25913.83242313339</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>25959.28092406244</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>25849.75482455907</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>25661.40245736668</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>25934.68290714044</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>25895.52287041745</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>24429.62656201259</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>24504.81816388933</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>24820.01371687847</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>24822.67050117893</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>24875.49528460529</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>24593.25774805441</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>24570.02255204599</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>24788.94874601797</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>25066.12776374435</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>25098.3938870087</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>24988.00695264447</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>24706.5992656612</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>24690.87259748624</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>24651.73040450875</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>24570.52043120197</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>24555.31734553333</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>24504.46442200971</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>24470.40933677522</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>24336.58480243949</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>24362.74945450603</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>24464.64518785123</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>24537.59508507158</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>24340.18409874952</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>23841.59076584918</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>23932.44232690768</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>23985.83010555391</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>24035.75293661255</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>23981.74490397967</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>23907.14487327465</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>23989.26875754304</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>24047.50752727935</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>23952.86301075776</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>23698.94721802124</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>23783.5010451109</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>23841.85960051332</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>23564.17079765363</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>23252.49064924262</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>23287.89949695677</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>23366.88862991663</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>23144.14532825743</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>22992.94576393901</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>23079.51906827244</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>23181.15812409917</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>23288.07823101928</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>22990.6967813805</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>22675.84157648961</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>22759.34892640915</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>22855.80170328169</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>22303.82033547915</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>22011.49411093082</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>22108.36296238796</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>22141.51251596939</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>21836.85981685734</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>21506.85355944673</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>21582.77091455525</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>21607.19871645128</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>21711.55962249279</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>21445.22844603083</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>21137.01070893437</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>21233.25469696941</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>21302.43355019073</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>21144.57599738409</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>20928.06888847368</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>21032.58899539379</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>21137.71589142955</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>21239.69313941665</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>21330.97342633001</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>21427.68351134841</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>21534.60361826852</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>21624.53751845786</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>21584.67213098779</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>21577.12985052804</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>21684.04995744815</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>21780.87611859755</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>21709.97985295126</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>21732.38556163532</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>21839.30566855543</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>21941.98965897068</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>21741.59641108309</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>21811.27849741246</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>21832.94772878822</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>21939.86783570833</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>22046.78794262843</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>21977.85180953759</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>21881.88699223926</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>21981.05688556713</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>22087.02056530277</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>22038.93818571284</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>22039.77589323857</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>22143.30890338449</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>22250.2290103046</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>22219.92834131216</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>22132.15055117699</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>22235.138143534</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>22341.09634754148</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>22448.01645446159</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>22318.36768335838</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>22242.39054435239</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>22348.35799742635</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>22455.27810434646</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>21960.78821895928</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>21792.60783248089</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>21899.527939401</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>21998.64415599853</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>22105.56426291863</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>21880.82233861571</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>21486.02768774571</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>21576.48313664989</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>21669.97384538647</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>21427.23134542894</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>21303.05142886428</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>21351.79412933277</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>21437.87234480093</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>21467.28468499464</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>21472.44030573323</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>21575.12964342257</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>21675.59820195558</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>21782.51830887569</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>21880.49151194965</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>21977.5235098954</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>22084.4436168155</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>22191.36372373561</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>22207.93166248968</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>22005.47414359096</v>
+        <v>21726.97123574192</v>
       </c>
     </row>
   </sheetData>

--- a/main_streamlit_v3_temp.xlsx
+++ b/main_streamlit_v3_temp.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27649.01199640813</v>
+        <v>33465.69320605557</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27591.56196396416</v>
+        <v>33413.84051768505</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27598.21337134232</v>
+        <v>33400.91301350976</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27552.4825359806</v>
+        <v>33399.0527938093</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27326.54405022385</v>
+        <v>33130.54802788497</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27188.47081041756</v>
+        <v>32981.51964505278</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27228.52246345006</v>
+        <v>33007.3159485483</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27156.36447272383</v>
+        <v>32992.05794593837</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26920.00153141296</v>
+        <v>32775.44022827751</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26648.19094548264</v>
+        <v>32624.22800424078</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26635.00548232959</v>
+        <v>32511.63463137104</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26571.88239966574</v>
+        <v>32491.94625154789</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26567.43502221554</v>
+        <v>32499.87308946618</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26446.24345114523</v>
+        <v>32315.0715462168</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26416.95017989769</v>
+        <v>32280.93278468934</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26496.35854683741</v>
+        <v>32339.48167026994</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26557.76707275658</v>
+        <v>32399.61231241679</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26442.16395369552</v>
+        <v>32281.14772916931</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26390.97054566144</v>
+        <v>32201.13797986674</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26382.11649165639</v>
+        <v>32208.90677792858</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26485.74877230015</v>
+        <v>32276.50584528017</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26245.85342107174</v>
+        <v>32111.89781565853</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26156.97194754233</v>
+        <v>31929.80434291737</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26312.97315263611</v>
+        <v>32104.64988152914</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26373.95718135078</v>
+        <v>32148.8527028505</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26431.61189169398</v>
+        <v>32201.3451623772</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24845.62800239064</v>
+        <v>32032.51101489598</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25184.59186760036</v>
+        <v>30728.9393591064</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25273.52942622871</v>
+        <v>31077.87025256597</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25298.34313171618</v>
+        <v>31018.77931667181</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>24968.42197352531</v>
+        <v>30671.73539170059</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25018.7136858973</v>
+        <v>30528.24873857178</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25240.32281807103</v>
+        <v>30807.95989447114</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25351.42638894358</v>
+        <v>30928.85099007711</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25461.2925506583</v>
+        <v>30771.59650130601</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25299.9496686512</v>
+        <v>30814.1977806193</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25420.24883459154</v>
+        <v>30974.08904868173</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25347.27045834897</v>
+        <v>30575.85548093979</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25337.97408014385</v>
+        <v>30575.85548093979</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25262.59733606876</v>
+        <v>30524.76709129861</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25225.96110482714</v>
+        <v>30471.48446966815</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25221.60265321424</v>
+        <v>30471.48446966815</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25184.27270108755</v>
+        <v>30355.10878909431</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25094.94760842112</v>
+        <v>30229.56268631581</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25060.36470911132</v>
+        <v>30212.42029062009</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25139.09390830671</v>
+        <v>30298.02932840109</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25196.20968674471</v>
+        <v>30382.11615600768</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25274.71682589643</v>
+        <v>30481.65015199695</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25077.50273788197</v>
+        <v>29904.91400336789</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>24827.75328016165</v>
+        <v>29683.62212122189</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>24847.5214210534</v>
+        <v>29756.70955566204</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24915.73852903776</v>
+        <v>29839.08645670902</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24822.84057273527</v>
+        <v>29731.93845951814</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24754.58267454771</v>
+        <v>29647.95345130351</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24843.42799663148</v>
+        <v>29744.68336698017</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24897.02377163016</v>
+        <v>29843.3116474061</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24807.33709513296</v>
+        <v>29731.07236541547</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24636.63357344828</v>
+        <v>29442.1837969981</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24735.57498373486</v>
+        <v>29543.7578985722</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24795.29296393336</v>
+        <v>29609.72242212297</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>24507.92341780627</v>
+        <v>29248.68435837933</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>24349.75063226256</v>
+        <v>28966.61566593041</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24358.41208200272</v>
+        <v>29066.80781365835</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>24442.34586228227</v>
+        <v>29145.4219390137</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>24507.60735481749</v>
+        <v>29246.9960405878</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>24302.09385494001</v>
+        <v>28839.11413522016</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>24088.4798991197</v>
+        <v>28685.27573738198</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24182.82792054662</v>
+        <v>28774.05755891227</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>24272.01234365947</v>
+        <v>28844.66963534663</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23991.14941598253</v>
+        <v>28504.49605728113</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23748.8030986486</v>
+        <v>28106.92358245012</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23843.48860406886</v>
+        <v>28165.90414481456</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23924.74257992917</v>
+        <v>28263.42870891016</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23595.09154543357</v>
+        <v>27694.46301428586</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23045.85126373372</v>
+        <v>27205.41596861337</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23138.81034607705</v>
+        <v>27284.94282413461</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23200.74322781706</v>
+        <v>27345.86622350283</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23300.120443863</v>
+        <v>27444.50850961246</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23059.84607477418</v>
+        <v>26933.47572194198</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22767.48724562187</v>
+        <v>26609.17038409584</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22857.52404838926</v>
+        <v>26690.00090035696</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22888.50125294043</v>
+        <v>26711.39067428665</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22543.16354117204</v>
+        <v>26355.86921714826</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22318.58815038253</v>
+        <v>25974.24778853259</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22386.36518452074</v>
+        <v>26012.79863501627</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22472.71559883981</v>
+        <v>26098.78989564715</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22342.50545278259</v>
+        <v>25899.65103244769</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21909.86237036463</v>
+        <v>25534.74912124793</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21847.06788668753</v>
+        <v>25455.78011245285</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21946.61440718055</v>
+        <v>25548.75279264279</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22044.16641321325</v>
+        <v>25650.32689421689</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22134.86290234716</v>
+        <v>25711.86691601452</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22229.2959824975</v>
+        <v>25802.6741735129</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22270.05697722229</v>
+        <v>25843.43516823769</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22371.15107879639</v>
+        <v>25942.66306308102</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22373.75933342256</v>
+        <v>25919.35779722418</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22336.70755705333</v>
+        <v>25852.9332525906</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22428.16540221718</v>
+        <v>25950.21417467752</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22529.73950379128</v>
+        <v>26045.96519932855</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22631.31360536538</v>
+        <v>26147.53930090265</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22500.34274881906</v>
+        <v>26013.48885593737</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22564.31607101472</v>
+        <v>26064.52119328914</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22664.0002617608</v>
+        <v>26158.23599958778</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>22761.57824683004</v>
+        <v>26259.81010116188</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>22822.2175230319</v>
+        <v>25991.11350065417</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>22528.02574130449</v>
+        <v>26005.76017535929</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>22629.59984287859</v>
+        <v>26107.33427693339</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>22731.17394445269</v>
+        <v>26208.90837850749</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>22719.0526776707</v>
+        <v>26013.73101998165</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>22558.48209105836</v>
+        <v>25991.14843040122</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>22647.98597904023</v>
+        <v>26063.89034830944</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>22609.70800309495</v>
+        <v>26165.46444988354</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>22710.32567748458</v>
+        <v>26126.2300467538</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>22663.35017431837</v>
+        <v>26094.70567600348</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>22686.32421194767</v>
+        <v>26050.22183603783</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>22787.17831352177</v>
+        <v>26148.45198856734</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22888.75241509587</v>
+        <v>26250.02609014144</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>22792.56468066854</v>
+        <v>26156.84896581409</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>22790.01299738864</v>
+        <v>26100.90302868765</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>22891.58709896273</v>
+        <v>26202.47713026175</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>22988.26678306111</v>
+        <v>26296.07940089858</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>22965.93472553141</v>
+        <v>26015.89406387093</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>22789.87309895988</v>
+        <v>25876.58074541777</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>22876.89306461165</v>
+        <v>25978.15484699187</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>22978.46716618575</v>
+        <v>26078.76704565335</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23058.22783186241</v>
+        <v>26180.34114722745</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>22964.7602795875</v>
+        <v>25942.60669027583</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>21670.55950102089</v>
+        <v>24597.16328837206</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>21765.85078093893</v>
+        <v>24692.4545682901</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>21861.59738251303</v>
+        <v>24788.2011698642</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>21395.05343949273</v>
+        <v>23694.38767617442</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21292.26666968969</v>
+        <v>23494.6368799774</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>21379.18186333466</v>
+        <v>23582.13331705876</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>21472.64288798569</v>
+        <v>23667.28162226742</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>21296.60373104748</v>
+        <v>23449.45546619632</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>21140.94165566679</v>
+        <v>23187.56042881438</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>21238.22221877934</v>
+        <v>23282.80597436464</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>21324.67260365878</v>
+        <v>23276.09960141214</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>21366.06704397614</v>
+        <v>23346.99083980439</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>21354.7106147787</v>
+        <v>23379.82744607695</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>21392.30733295987</v>
+        <v>23347.67844494648</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>21487.51207147665</v>
+        <v>23442.88318346325</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>21589.08617305075</v>
+        <v>23544.45728503736</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>21685.1667233428</v>
+        <v>23639.63542507299</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>21776.85271594254</v>
+        <v>23727.30991697343</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>21878.42681751664</v>
+        <v>23828.88401854753</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>21980.00091909074</v>
+        <v>23930.45812012164</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>21908.30827504191</v>
+        <v>23517.63671836177</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>21625.39713416782</v>
+        <v>23538.90477617816</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>21726.97123574192</v>
+        <v>23640.47887775226</v>
       </c>
     </row>
   </sheetData>

--- a/main_streamlit_v3_temp.xlsx
+++ b/main_streamlit_v3_temp.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33465.69320605557</v>
+        <v>33478.81506678486</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33413.84051768505</v>
+        <v>33420.90928419799</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33400.91301350976</v>
+        <v>33435.44136801924</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33399.0527938093</v>
+        <v>33333.65047310324</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33130.54802788497</v>
+        <v>33118.42276000287</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32981.51964505278</v>
+        <v>32966.91840849206</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33007.3159485483</v>
+        <v>33009.48841747743</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32992.05794593837</v>
+        <v>33013.97205489104</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32775.44022827751</v>
+        <v>32792.28219869739</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32624.22800424078</v>
+        <v>32589.78314828302</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32511.63463137104</v>
+        <v>32502.5185234276</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32491.94625154789</v>
+        <v>32480.46586535659</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32499.87308946618</v>
+        <v>32495.1668163725</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32315.0715462168</v>
+        <v>32357.10701789552</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32280.93278468934</v>
+        <v>32222.38041966104</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32339.48167026994</v>
+        <v>32371.38677494133</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32399.61231241679</v>
+        <v>32408.16229372749</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32281.14772916931</v>
+        <v>32292.4914392446</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32201.13797986674</v>
+        <v>32242.33427867746</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32208.90677792858</v>
+        <v>32195.31454491887</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32276.50584528017</v>
+        <v>32301.41850730323</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32111.89781565853</v>
+        <v>32011.81235460468</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31929.80434291737</v>
+        <v>32009.82951749931</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32104.64988152914</v>
+        <v>32068.92081806821</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32148.8527028505</v>
+        <v>32133.12771012427</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32201.3451623772</v>
+        <v>32189.80687582662</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32032.51101489598</v>
+        <v>31876.27764076117</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30728.9393591064</v>
+        <v>30888.40991275329</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31077.87025256597</v>
+        <v>31073.72217334309</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31018.77931667181</v>
+        <v>31028.87723212353</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30671.73539170059</v>
+        <v>30733.16914335431</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30528.24873857178</v>
+        <v>30526.23941999391</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30807.95989447114</v>
+        <v>30831.00181577364</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30928.85099007711</v>
+        <v>30990.34446200331</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30771.59650130601</v>
+        <v>30941.24452214186</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30814.1977806193</v>
+        <v>30759.48917106709</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30974.08904868173</v>
+        <v>30939.43222481702</v>
       </c>
     </row>
     <row r="39">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30524.76709129861</v>
+        <v>30503.17193642068</v>
       </c>
     </row>
     <row r="42">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30471.48446966815</v>
+        <v>30470.71769005277</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30355.10878909431</v>
+        <v>30467.46744601246</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30229.56268631581</v>
+        <v>30231.6697955068</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30212.42029062009</v>
+        <v>30217.7662959661</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30298.02932840109</v>
+        <v>30295.85654773215</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30382.11615600768</v>
+        <v>30400.26031829821</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30481.65015199695</v>
+        <v>30503.03417338099</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29904.91400336789</v>
+        <v>30303.90781878912</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29683.62212122189</v>
+        <v>29718.67058278512</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29756.70955566204</v>
+        <v>29819.4777895396</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29839.08645670902</v>
+        <v>29881.85449947708</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29731.93845951814</v>
+        <v>29827.02057623355</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29647.95345130351</v>
+        <v>29703.21335150688</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29744.68336698017</v>
+        <v>29802.0761716879</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29843.3116474061</v>
+        <v>29906.03514012962</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29731.07236541547</v>
+        <v>29776.97186613633</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29442.1837969981</v>
+        <v>29523.2619840217</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29543.7578985722</v>
+        <v>29623.42142748027</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29609.72242212297</v>
+        <v>29712.91235381294</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29248.68435837933</v>
+        <v>29409.44309308446</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28966.61566593041</v>
+        <v>29062.84376215855</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29066.80781365835</v>
+        <v>29167.2255075402</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29145.4219390137</v>
+        <v>29252.34204593384</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29246.9960405878</v>
+        <v>29357.20101258246</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28839.11413522016</v>
+        <v>29053.11860278174</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28685.27573738198</v>
+        <v>28805.68196491533</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28774.05755891227</v>
+        <v>28898.26280808435</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28844.66963534663</v>
+        <v>28979.10212193799</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28504.49605728113</v>
+        <v>28595.91481058921</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28106.92358245012</v>
+        <v>28251.26572679233</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28165.90414481456</v>
+        <v>28322.00089065661</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28263.42870891016</v>
+        <v>28416.69815806203</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27694.46301428586</v>
+        <v>27818.86542077088</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27205.41596861337</v>
+        <v>27370.47678091495</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27284.94282413461</v>
+        <v>27446.53332665482</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27345.86622350283</v>
+        <v>27520.93577219608</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27444.50850961246</v>
+        <v>27603.78166506093</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26933.47572194198</v>
+        <v>27128.69824966326</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26609.17038409584</v>
+        <v>26780.88299123914</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26690.00090035696</v>
+        <v>26883.28134524274</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26711.39067428665</v>
+        <v>26912.92355155635</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26355.86921714826</v>
+        <v>26625.21091182594</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25974.24778853259</v>
+        <v>26186.28391665861</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26012.79863501627</v>
+        <v>26257.71999498324</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26098.78989564715</v>
+        <v>26321.45773556408</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25899.65103244769</v>
+        <v>26298.04665086719</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25534.74912124793</v>
+        <v>25908.83163835726</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25455.78011245285</v>
+        <v>25699.18979711265</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25548.75279264279</v>
+        <v>25794.66903855914</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25650.32689421689</v>
+        <v>25895.37536983822</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25711.86691601452</v>
+        <v>25964.82320751908</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25802.6741735129</v>
+        <v>26064.62843546727</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25843.43516823769</v>
+        <v>26108.3892288073</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25942.66306308102</v>
+        <v>26215.3093357274</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25919.35779722418</v>
+        <v>26154.40647590633</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25852.9332525906</v>
+        <v>26139.19937246746</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25950.21417467752</v>
+        <v>26243.19164284911</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26045.96519932855</v>
+        <v>26339.99549335897</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26147.53930090265</v>
+        <v>26446.91560027907</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26013.48885593737</v>
+        <v>26459.74769946282</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26064.52119328914</v>
+        <v>26374.58950335758</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26158.23599958778</v>
+        <v>26481.50961027769</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26259.81010116188</v>
+        <v>26580.57042192233</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25991.11350065417</v>
+        <v>26628.83344915717</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26005.76017535929</v>
+        <v>26337.21250681176</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26107.33427693339</v>
+        <v>26444.13261373187</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26208.90837850749</v>
+        <v>26551.05272065198</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26013.73101998165</v>
+        <v>26418.62116818142</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25991.14843040122</v>
+        <v>26324.95814330761</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26063.89034830944</v>
+        <v>26422.07270649195</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26165.46444988354</v>
+        <v>26528.99281341206</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26126.2300467538</v>
+        <v>26495.10441562832</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26094.70567600348</v>
+        <v>26466.14591132028</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26050.22183603783</v>
+        <v>26429.78821560437</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26148.45198856734</v>
+        <v>26533.36437347989</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26250.02609014144</v>
+        <v>26640.2844804</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26156.84896581409</v>
+        <v>26627.46291268963</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26100.90302868765</v>
+        <v>26503.34796936424</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26202.47713026175</v>
+        <v>26608.77353655832</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26296.07940089858</v>
+        <v>26707.72181254116</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26015.89406387093</v>
+        <v>26417.24525080292</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>25876.58074541777</v>
+        <v>26340.06199335467</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25978.15484699187</v>
+        <v>26405.83527467248</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26078.76704565335</v>
+        <v>26511.79347867996</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26180.34114722745</v>
+        <v>26596.90014970264</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25942.60669027583</v>
+        <v>26349.3039185534</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>24597.16328837206</v>
+        <v>25046.22773743668</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>24692.4545682901</v>
+        <v>25141.03752270074</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>24788.2011698642</v>
+        <v>25247.95762962085</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23694.38767617442</v>
+        <v>25132.82379621352</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23494.6368799774</v>
+        <v>23957.25768593326</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>23582.13331705876</v>
+        <v>24063.23236977645</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>23667.28162226742</v>
+        <v>24143.30220531887</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>23449.45546619632</v>
+        <v>23912.24652557166</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>23187.56042881438</v>
+        <v>23679.39292064699</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>23282.80597436464</v>
+        <v>23738.34262265564</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>23276.09960141214</v>
+        <v>23834.6117615862</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>23346.99083980439</v>
+        <v>23858.23731402117</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>23379.82744607695</v>
+        <v>23867.60608154373</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23347.67844494648</v>
+        <v>23869.47812274478</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>23442.88318346325</v>
+        <v>23966.7917073719</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>23544.45728503736</v>
+        <v>24073.711814292</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>23639.63542507299</v>
+        <v>24171.09131223775</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>23727.30991697343</v>
+        <v>24267.2564569201</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>23828.88401854753</v>
+        <v>24374.17656384021</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>23930.45812012164</v>
+        <v>24481.09667076031</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>23517.63671836177</v>
+        <v>24533.60971032071</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>23538.90477617816</v>
+        <v>24100.23533750883</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>23640.47887775226</v>
+        <v>24207.15544442894</v>
       </c>
     </row>
   </sheetData>

--- a/main_streamlit_v3_temp.xlsx
+++ b/main_streamlit_v3_temp.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33478.81506678486</v>
+        <v>33452.02960683603</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33420.90928419799</v>
+        <v>33416.04744270352</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33435.44136801924</v>
+        <v>33428.64858119172</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33333.65047310324</v>
+        <v>33334.21667591591</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33118.42276000287</v>
+        <v>33184.44809034982</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32966.91840849206</v>
+        <v>32975.84078225301</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33009.48841747743</v>
+        <v>33011.55169400804</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33013.97205489104</v>
+        <v>32975.13320882477</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32792.28219869739</v>
+        <v>32805.19348058276</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32589.78314828302</v>
+        <v>32634.48512479875</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32502.5185234276</v>
+        <v>32508.79416243713</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32480.46586535659</v>
+        <v>32482.02259935138</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32495.1668163725</v>
+        <v>32510.15110191844</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32357.10701789552</v>
+        <v>32309.01164024487</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32222.38041966104</v>
+        <v>32303.57034460452</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32371.38677494133</v>
+        <v>32368.46900602943</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32408.16229372749</v>
+        <v>32424.29800875598</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32292.4914392446</v>
+        <v>32289.62553800494</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32242.33427867746</v>
+        <v>32200.02935571772</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32195.31454491887</v>
+        <v>32242.01235459997</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32301.41850730323</v>
+        <v>32351.16323853311</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32011.81235460468</v>
+        <v>32105.96981491959</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32009.82951749931</v>
+        <v>31943.94469998771</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32068.92081806821</v>
+        <v>32073.11814260486</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32133.12771012427</v>
+        <v>32154.88694852356</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32189.80687582662</v>
+        <v>32208.2683725684</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31876.27764076117</v>
+        <v>31908.54353754226</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30888.40991275329</v>
+        <v>30642.85604881407</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31073.72217334309</v>
+        <v>31068.17665796504</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31028.87723212353</v>
+        <v>31008.83988945493</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30733.16914335431</v>
+        <v>30734.55695843923</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30526.23941999391</v>
+        <v>30611.35030012325</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30831.00181577364</v>
+        <v>30799.50791153299</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30990.34446200331</v>
+        <v>30967.59615007453</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30941.24452214186</v>
+        <v>30873.29989747982</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30759.48917106709</v>
+        <v>30796.53690408655</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30939.43222481702</v>
+        <v>30551.13515675055</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30575.85548093979</v>
+        <v>30575.81542639952</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30575.85548093979</v>
+        <v>30572.6086179704</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30503.17193642068</v>
+        <v>30547.83795904304</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30471.48446966815</v>
+        <v>30471.44441512788</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30470.71769005277</v>
+        <v>30470.6776355125</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30467.46744601246</v>
+        <v>30356.83820936358</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30231.6697955068</v>
+        <v>30213.1546442889</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30217.7662959661</v>
+        <v>30212.38023607982</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30295.85654773215</v>
+        <v>30297.98927386082</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30400.26031829821</v>
+        <v>30385.26081484321</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30503.03417338099</v>
+        <v>30467.13777328087</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30303.90781878912</v>
+        <v>30319.03494357815</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29718.67058278512</v>
+        <v>29686.55449616881</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29819.4777895396</v>
+        <v>29756.91414088169</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29881.85449947708</v>
+        <v>29839.04640216875</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29827.02057623355</v>
+        <v>29820.55082688458</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29703.21335150688</v>
+        <v>29649.71324350654</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29802.0761716879</v>
+        <v>29743.23005834155</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29906.03514012962</v>
+        <v>29841.84302143726</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29776.97186613633</v>
+        <v>29596.19076996803</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29523.2619840217</v>
+        <v>29450.81339309886</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29623.42142748027</v>
+        <v>29543.19129274989</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29712.91235381294</v>
+        <v>29634.8434108577</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29409.44309308446</v>
+        <v>29219.29997703242</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29062.84376215855</v>
+        <v>28966.57561139015</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29167.2255075402</v>
+        <v>29057.33278001472</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29252.34204593384</v>
+        <v>29145.38188447343</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29357.20101258246</v>
+        <v>29246.95598604753</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29053.11860278174</v>
+        <v>28993.89488688272</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28805.68196491533</v>
+        <v>28681.97790506395</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28898.26280808435</v>
+        <v>28771.36731105049</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28979.10212193799</v>
+        <v>28864.64162605524</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28595.91481058921</v>
+        <v>28458.24801734745</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28251.26572679233</v>
+        <v>28106.88352790985</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28322.00089065661</v>
+        <v>28162.76178356502</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28416.69815806203</v>
+        <v>28264.33588513912</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27818.86542077088</v>
+        <v>27622.83676622821</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27370.47678091495</v>
+        <v>27205.37591407311</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27446.53332665482</v>
+        <v>27264.59249876102</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27520.93577219608</v>
+        <v>27344.47754123756</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27603.78166506093</v>
+        <v>27444.4684550722</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27128.69824966326</v>
+        <v>27035.47954344309</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26780.88299123914</v>
+        <v>26610.90267570942</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26883.28134524274</v>
+        <v>26622.94960653624</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26912.92355155635</v>
+        <v>26711.35061974639</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26625.21091182594</v>
+        <v>26400.83758162509</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26186.28391665861</v>
+        <v>25972.40364827805</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26257.71999498324</v>
+        <v>26022.68150651307</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26321.45773556408</v>
+        <v>26098.74984110688</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26298.04665086719</v>
+        <v>25856.61943233096</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25908.83163835726</v>
+        <v>25662.97805429606</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25699.18979711265</v>
+        <v>25454.77825319822</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25794.66903855914</v>
+        <v>25549.58160348714</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25895.37536983822</v>
+        <v>25646.26474413522</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25964.82320751908</v>
+        <v>25737.63981494185</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26064.62843546727</v>
+        <v>25802.63411897263</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26108.3892288073</v>
+        <v>25841.04890696665</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26215.3093357274</v>
+        <v>25942.62300854076</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26154.40647590633</v>
+        <v>25934.18438418673</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26139.19937246746</v>
+        <v>25852.89319805034</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26243.19164284911</v>
+        <v>25948.64422270136</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26339.99549335897</v>
+        <v>26045.92514478829</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26446.91560027907</v>
+        <v>26147.49924636239</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26459.74769946282</v>
+        <v>26027.0704228528</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26374.58950335758</v>
+        <v>26064.52119328914</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26481.50961027769</v>
+        <v>26166.09529486324</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26580.57042192233</v>
+        <v>26259.81010116188</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26628.83344915717</v>
+        <v>26302.85011935838</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26337.21250681176</v>
+        <v>26005.76017535929</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26444.13261373187</v>
+        <v>26107.33427693339</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26551.05272065198</v>
+        <v>26208.90837850749</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26418.62116818142</v>
+        <v>26179.04562046386</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26324.95814330761</v>
+        <v>25989.09310025768</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26422.07270649195</v>
+        <v>26071.64056190167</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26528.99281341206</v>
+        <v>26165.46444988354</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26495.10441562832</v>
+        <v>26127.18647393826</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26466.14591132028</v>
+        <v>26121.62757055038</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26429.78821560437</v>
+        <v>26050.22183603783</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26533.36437347989</v>
+        <v>26148.45198856734</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26640.2844804</v>
+        <v>26250.02609014144</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26627.46291268963</v>
+        <v>26204.22692825878</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26503.34796936424</v>
+        <v>26102.39756841367</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26608.77353655832</v>
+        <v>26202.47713026175</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26707.72181254116</v>
+        <v>26296.07940089858</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26417.24525080292</v>
+        <v>26008.99881118023</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26340.06199335467</v>
+        <v>25890.17297842748</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26405.83527467248</v>
+        <v>25978.15484699187</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26511.79347867996</v>
+        <v>26078.76704565335</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26596.90014970264</v>
+        <v>26158.52771133001</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>26349.3039185534</v>
+        <v>25988.51922817296</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25046.22773743668</v>
+        <v>24597.16328837206</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>25141.03752270074</v>
+        <v>24692.4545682901</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25247.95762962085</v>
+        <v>24788.20116986421</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>25132.82379621352</v>
+        <v>24505.99523804776</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23957.25768593326</v>
+        <v>23489.87557854199</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>24063.23236977645</v>
+        <v>23587.36316171896</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>24143.30220531887</v>
+        <v>23667.28162226742</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>23912.24652557166</v>
+        <v>23411.50229448806</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>23679.39292064699</v>
+        <v>23185.90689035285</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>23738.34262265564</v>
+        <v>23242.00039397286</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>23834.6117615862</v>
+        <v>23280.9014151942</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>23858.23731402117</v>
+        <v>23350.36680615055</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>23867.60608154373</v>
+        <v>23348.83670219993</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23869.47812274478</v>
+        <v>23350.91560418215</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>23966.7917073719</v>
+        <v>23442.88318346325</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>24073.711814292</v>
+        <v>23544.45728503736</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>24171.09131223775</v>
+        <v>23635.01414302171</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>24267.2564569201</v>
+        <v>23727.30991697343</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>24374.17656384021</v>
+        <v>23828.88401854753</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>24481.09667076031</v>
+        <v>23930.45812012163</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>24533.60971032071</v>
+        <v>23756.50599891226</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>24100.23533750883</v>
+        <v>23538.90477617816</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>24207.15544442894</v>
+        <v>23640.47887775226</v>
       </c>
     </row>
   </sheetData>
